--- a/gee/stat.xlsx
+++ b/gee/stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\Documents\GitHub\PhD\orbit-drift-MODIS-ice-albedo\gee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7928053-7D20-48BA-B442-3CCA787F2DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1482E9F5-6D15-4363-9C5B-748F23480AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32340" yWindow="2775" windowWidth="21435" windowHeight="12210" xr2:uid="{49D7E878-2DD4-473C-8D14-502A01B15A7E}"/>
+    <workbookView xWindow="984" yWindow="2316" windowWidth="21432" windowHeight="12216" activeTab="1" xr2:uid="{49D7E878-2DD4-473C-8D14-502A01B15A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
@@ -37,18 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">1.0085+-0.0002 </t>
-  </si>
-  <si>
-    <t>1.0158+-0.0011</t>
-  </si>
-  <si>
-    <t>-0.0047+-0.0009</t>
-  </si>
-  <si>
-    <t>-0.0050+-0.0001</t>
-  </si>
-  <si>
     <t>MYD(2002-2019)</t>
   </si>
   <si>
@@ -56,9 +44,6 @@
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>MYD-MOD</t>
   </si>
   <si>
     <t>RMSE</t>
@@ -77,6 +62,21 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9916+-0.0002 </t>
+  </si>
+  <si>
+    <t>0.9844+-0.0011</t>
+  </si>
+  <si>
+    <t>0.0050+-0.0001</t>
+  </si>
+  <si>
+    <t>MOD-MYD</t>
+  </si>
+  <si>
+    <t>0.0046+-0.0009</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MYD-MOD</c:v>
+                  <c:v>MOD-MYD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -313,61 +313,61 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-2.3E-3</c:v>
+                  <c:v>2.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.3E-3</c:v>
+                  <c:v>4.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.0000000000000002E-4</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                  <c:v>-1E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.0000000000000001E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.0000000000000001E-4</c:v>
+                  <c:v>2.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.2000000000000001E-3</c:v>
+                  <c:v>2.2000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.9999999999999997E-4</c:v>
+                  <c:v>2.9999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.9E-3</c:v>
+                  <c:v>1.9E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.8E-3</c:v>
+                  <c:v>3.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.4000000000000003E-3</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.0000000000000001E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9999999999999997E-4</c:v>
+                  <c:v>-2.9999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9999999999999995E-4</c:v>
+                  <c:v>-5.9999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0000000000000004E-4</c:v>
+                  <c:v>-8.0000000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.5000000000000001E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.0999999999999996E-3</c:v>
+                  <c:v>8.0999999999999996E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,16 +1126,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>360997</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>460057</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>56197</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>155257</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FC7C0-2EAA-497C-9527-12504E3643FE}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,39 +1476,39 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>0.85</v>
       </c>
       <c r="E2" s="5">
-        <v>-1.6999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>0.81</v>
       </c>
       <c r="E3" s="5">
-        <v>-8.0999999999999996E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F3" s="5">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="G3" s="5">
         <v>6.8099999999999994E-2</v>
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4041A7E-6E72-46F8-925A-BDA46EA8ACDA}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1561,10 +1561,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1572,7 +1572,7 @@
         <v>2002</v>
       </c>
       <c r="B2" s="4">
-        <v>-2.3E-3</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1580,7 +1580,7 @@
         <v>2003</v>
       </c>
       <c r="B3" s="4">
-        <v>-4.3E-3</v>
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1588,7 +1588,7 @@
         <v>2004</v>
       </c>
       <c r="B4" s="4">
-        <v>-4.0000000000000002E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1596,7 +1596,7 @@
         <v>2005</v>
       </c>
       <c r="B5" s="4">
-        <v>1E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1604,7 +1604,7 @@
         <v>2006</v>
       </c>
       <c r="B6" s="4">
-        <v>-4.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1612,7 +1612,7 @@
         <v>2007</v>
       </c>
       <c r="B7" s="4">
-        <v>-2E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1620,7 +1620,7 @@
         <v>2008</v>
       </c>
       <c r="B8" s="4">
-        <v>-2.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1628,7 +1628,7 @@
         <v>2009</v>
       </c>
       <c r="B9" s="4">
-        <v>-2.2000000000000001E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1636,7 +1636,7 @@
         <v>2010</v>
       </c>
       <c r="B10" s="4">
-        <v>-2.9999999999999997E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1644,7 +1644,7 @@
         <v>2011</v>
       </c>
       <c r="B11" s="4">
-        <v>-1.9E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1652,7 +1652,7 @@
         <v>2012</v>
       </c>
       <c r="B12" s="4">
-        <v>-3.8E-3</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1660,7 +1660,7 @@
         <v>2013</v>
       </c>
       <c r="B13" s="4">
-        <v>-5.4000000000000003E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1668,7 +1668,7 @@
         <v>2014</v>
       </c>
       <c r="B14" s="4">
-        <v>-4.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1684,7 +1684,7 @@
         <v>2016</v>
       </c>
       <c r="B16" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1692,7 +1692,7 @@
         <v>2017</v>
       </c>
       <c r="B17" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1700,7 +1700,7 @@
         <v>2018</v>
       </c>
       <c r="B18" s="4">
-        <v>8.0000000000000004E-4</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1708,7 +1708,7 @@
         <v>2019</v>
       </c>
       <c r="B19" s="4">
-        <v>-2.5000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1716,7 +1716,7 @@
         <v>2020</v>
       </c>
       <c r="B20" s="4">
-        <v>-8.0999999999999996E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
     </row>
   </sheetData>

--- a/gee/stat.xlsx
+++ b/gee/stat.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\Documents\GitHub\PhD\orbit-drift-MODIS-ice-albedo\gee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1482E9F5-6D15-4363-9C5B-748F23480AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AC8A0D-1339-4276-9921-DCB67A00573F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="984" yWindow="2316" windowWidth="21432" windowHeight="12216" activeTab="1" xr2:uid="{49D7E878-2DD4-473C-8D14-502A01B15A7E}"/>
+    <workbookView xWindow="8880" yWindow="4110" windowWidth="28800" windowHeight="15375" activeTab="2" xr2:uid="{49D7E878-2DD4-473C-8D14-502A01B15A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
-    <sheet name="bias" sheetId="2" r:id="rId2"/>
+    <sheet name="HSA" sheetId="3" r:id="rId2"/>
+    <sheet name="dt" sheetId="4" r:id="rId3"/>
+    <sheet name="bias" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>MYD(2002-2019)</t>
   </si>
@@ -77,6 +79,24 @@
   </si>
   <si>
     <t>0.0046+-0.0009</t>
+  </si>
+  <si>
+    <t>HSA</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>2002-2019</t>
+  </si>
+  <si>
+    <t>MYD</t>
   </si>
 </sst>
 </file>
@@ -122,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,6 +156,9 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -155,6 +178,738 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HSA!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HSA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HSA!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HSA!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17560000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62EB-433A-AB85-986E7B495533}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1294810176"/>
+        <c:axId val="1294809760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1294810176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1294809760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1294809760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1294810176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dt!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>dt!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002-2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dt!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-3.6100000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9200000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.839999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0699999999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC21-4C8B-AAC7-D4DF857D71A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="606017839"/>
+        <c:axId val="606019087"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="606017839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606019087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="606019087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606017839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -606,6 +1361,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1122,7 +1957,1108 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DC39F9-A49F-415C-BF47-986E41AB0A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC4C115-CB4E-4B78-A761-6A8E0ADBBE23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1466,14 +3402,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1494,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +3453,7 @@
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1547,19 +3483,454 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62101249-8DDD-44BD-9CE3-E155592038DC}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <f>B2-0.068</f>
+        <v>-3.6100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C24" si="0">B3-0.068</f>
+        <v>-4.9200000000000008E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999956E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-2.9300000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-1.0900000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999919E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000038E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.53E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-3.6100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-6.3E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="6">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-6.7400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="6">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-7.1900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-5.1500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-4.4300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="6">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-1.5400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.1023</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>3.839999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>7.0699999999999985E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.1076</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05A491-DBCD-46F6-834B-4990E0FA09B1}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6">
+        <f>B2-0.068</f>
+        <v>-3.6100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D8" si="0">B3-0.068</f>
+        <v>-4.9200000000000008E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>3.839999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>7.0699999999999985E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6">
+        <f>B8-0</f>
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4041A7E-6E72-46F8-925A-BDA46EA8ACDA}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +3938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2002</v>
       </c>
@@ -1575,7 +3946,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2003</v>
       </c>
@@ -1583,7 +3954,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2004</v>
       </c>
@@ -1591,7 +3962,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -1599,7 +3970,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2006</v>
       </c>
@@ -1607,7 +3978,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -1615,7 +3986,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2008</v>
       </c>
@@ -1623,7 +3994,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2009</v>
       </c>
@@ -1631,7 +4002,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
@@ -1639,7 +4010,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -1647,7 +4018,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -1655,7 +4026,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -1663,7 +4034,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
@@ -1671,7 +4042,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
@@ -1679,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
@@ -1687,7 +4058,7 @@
         <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2017</v>
       </c>
@@ -1695,7 +4066,7 @@
         <v>-5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2018</v>
       </c>
@@ -1703,7 +4074,7 @@
         <v>-8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2019</v>
       </c>
@@ -1711,7 +4082,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2020</v>
       </c>

--- a/gee/stat.xlsx
+++ b/gee/stat.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\Documents\GitHub\PhD\orbit-drift-MODIS-ice-albedo\gee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AC8A0D-1339-4276-9921-DCB67A00573F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F284BCC5-0FE4-4B92-BB25-5B4D9468D671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="4110" windowWidth="28800" windowHeight="15375" activeTab="2" xr2:uid="{49D7E878-2DD4-473C-8D14-502A01B15A7E}"/>
+    <workbookView xWindow="43860" yWindow="4710" windowWidth="28800" windowHeight="15375" activeTab="3" xr2:uid="{49D7E878-2DD4-473C-8D14-502A01B15A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
     <sheet name="HSA" sheetId="3" r:id="rId2"/>
     <sheet name="dt" sheetId="4" r:id="rId3"/>
-    <sheet name="bias" sheetId="2" r:id="rId4"/>
+    <sheet name="MYD" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>MYD(2002-2019)</t>
   </si>
@@ -75,9 +75,6 @@
     <t>0.0050+-0.0001</t>
   </si>
   <si>
-    <t>MOD-MYD</t>
-  </si>
-  <si>
     <t>0.0046+-0.0009</t>
   </si>
   <si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>MYD</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>rescaled</t>
   </si>
 </sst>
 </file>
@@ -224,442 +227,6 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>HSA!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>HSA!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>HSA!$B$2:$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>3.1899999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7099999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4499999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6900000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.53E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.8000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1899999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.6000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2300000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.8999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.3699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.2600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1023</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.10639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.13869999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.17560000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62EB-433A-AB85-986E7B495533}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1294810176"/>
-        <c:axId val="1294809760"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1294810176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1294809760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1294809760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1294810176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -721,19 +288,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-3.6100000000000007E-2</c:v>
+                  <c:v>-1.3749999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9200000000000008E-2</c:v>
+                  <c:v>-2.6849999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.839999999999999E-2</c:v>
+                  <c:v>6.0749999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0699999999999985E-2</c:v>
+                  <c:v>9.3049999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1076</c:v>
+                  <c:v>0.12995000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,6 +476,375 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5301837270341209E-5"/>
+                  <c:y val="0.3190277777777778"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dt!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dt!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.0749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3049999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12995000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7334-40C8-96E5-1482A58E2697}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1484363183"/>
+        <c:axId val="1484358191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1484363183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1484358191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1484358191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1484363183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -964,11 +900,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>bias!$B$1</c:f>
+              <c:f>MYD!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MOD-MYD</c:v>
+                  <c:v>mean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -997,7 +933,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>bias!$A$2:$A$20</c:f>
+              <c:f>MYD!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1063,7 +999,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>bias!$B$2:$B$20</c:f>
+              <c:f>MYD!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1442,7 +1378,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1469,8 +1405,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1571,7 +1507,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1603,10 +1539,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1646,23 +1582,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1767,8 +1702,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1900,20 +1835,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1927,17 +1861,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1958,7 +1881,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1985,8 +1908,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2087,7 +2010,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2119,10 +2042,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2162,22 +2085,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2282,8 +2206,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2415,19 +2339,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2441,6 +2366,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2980,57 +2916,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DC39F9-A49F-415C-BF47-986E41AB0A28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3055,23 +2950,59 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0DA2AF-9C6E-477C-BBF0-4FD807C6E057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>460057</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>269556</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>155257</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3461,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>0.81</v>
@@ -3484,10 +3415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62101249-8DDD-44BD-9CE3-E155592038DC}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3495,18 +3426,24 @@
     <col min="1" max="1" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2000</v>
       </c>
@@ -3514,11 +3451,19 @@
         <v>3.1899999999999998E-2</v>
       </c>
       <c r="C2">
-        <f>B2-0.068</f>
-        <v>-3.6100000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>B2-$E$2</f>
+        <v>-1.3749999999999998E-2</v>
+      </c>
+      <c r="E2">
+        <f>MEDIAN(B4:B21)</f>
+        <v>4.5649999999999996E-2</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.STDEV.P(B4:B21)</f>
+        <v>2.9714757629629992E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2001</v>
       </c>
@@ -3526,11 +3471,11 @@
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C24" si="0">B3-0.068</f>
-        <v>-4.9200000000000008E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C24" si="0">B3-$E$2</f>
+        <v>-2.6849999999999995E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2002</v>
       </c>
@@ -3539,10 +3484,10 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>7.5999999999999956E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9950000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2003</v>
       </c>
@@ -3551,10 +3496,10 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-2.9300000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-6.9499999999999978E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2004</v>
       </c>
@@ -3563,10 +3508,10 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.8350000000000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2005</v>
       </c>
@@ -3575,10 +3520,10 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-1.0900000000000007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1450000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2006</v>
       </c>
@@ -3587,10 +3532,10 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>6.4999999999999919E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8850000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2007</v>
       </c>
@@ -3599,10 +3544,10 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-1.1000000000000038E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.1250000000000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -3611,10 +3556,10 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-4.2700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-2.0349999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2009</v>
       </c>
@@ -3623,10 +3568,10 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-1.0000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2350000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2010</v>
       </c>
@@ -3635,10 +3580,10 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-3.6100000000000007E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-1.3749999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2011</v>
       </c>
@@ -3647,10 +3592,10 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-6.3E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-4.0649999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2012</v>
       </c>
@@ -3659,10 +3604,10 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-6.7400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-4.5049999999999993E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2013</v>
       </c>
@@ -3671,10 +3616,10 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-2.0000000000000018E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0350000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2014</v>
       </c>
@@ -3683,7 +3628,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-3.5700000000000003E-2</v>
+        <v>-1.3349999999999994E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3695,7 +3640,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-7.1900000000000006E-2</v>
+        <v>-4.9549999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3707,7 +3652,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>-5.1500000000000004E-2</v>
+        <v>-2.9149999999999995E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3719,7 +3664,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>-4.4300000000000006E-2</v>
+        <v>-2.1949999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3731,7 +3676,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>-1.5400000000000004E-2</v>
+        <v>6.9500000000000048E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3743,7 +3688,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3.4299999999999997E-2</v>
+        <v>5.6650000000000006E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3755,7 +3700,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3.839999999999999E-2</v>
+        <v>6.0749999999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3767,7 +3712,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>7.0699999999999985E-2</v>
+        <v>9.3049999999999994E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,41 +3724,43 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.1076</v>
+        <v>0.12995000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05A491-DBCD-46F6-834B-4990E0FA09B1}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2000</v>
       </c>
@@ -3821,14 +3768,18 @@
         <v>3.1899999999999998E-2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6">
-        <f>B2-0.068</f>
-        <v>-3.6100000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>B2-HSA!$E$2</f>
+        <v>-1.3749999999999998E-2</v>
+      </c>
+      <c r="E2">
+        <f>D2/($D$5/$D$8)</f>
+        <v>-2.2633744855967077E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2001</v>
       </c>
@@ -3836,22 +3787,26 @@
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D8" si="0">B3-0.068</f>
-        <v>-4.9200000000000008E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f>B3-HSA!$E$2</f>
+        <v>-2.6849999999999995E-2</v>
+      </c>
+      <c r="E3">
+        <f>D3/($D$5/$D$8)</f>
+        <v>-4.4197530864197527E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2020</v>
       </c>
@@ -3859,14 +3814,14 @@
         <v>0.10639999999999999</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>3.839999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f>B5-HSA!$E$2</f>
+        <v>6.0749999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2021</v>
       </c>
@@ -3874,14 +3829,14 @@
         <v>0.13869999999999999</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>7.0699999999999985E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <f>B6-HSA!$E$2</f>
+        <v>9.3049999999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2022</v>
       </c>
@@ -3889,14 +3844,14 @@
         <v>0.17560000000000001</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <f>B7-HSA!$E$2</f>
+        <v>0.12995000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2020</v>
       </c>
@@ -3904,10 +3859,10 @@
         <v>0.01</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6">
-        <f>B8-0</f>
+        <f>B8-dt!E7</f>
         <v>0.01</v>
       </c>
     </row>
@@ -3921,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4041A7E-6E72-46F8-925A-BDA46EA8ACDA}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,7 +3890,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/gee/stat.xlsx
+++ b/gee/stat.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\Documents\GitHub\PhD\orbit-drift-MODIS-ice-albedo\gee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AC8A0D-1339-4276-9921-DCB67A00573F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187342BF-5575-4F81-91B0-E6BB89F2390B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="4110" windowWidth="28800" windowHeight="15375" activeTab="2" xr2:uid="{49D7E878-2DD4-473C-8D14-502A01B15A7E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{49D7E878-2DD4-473C-8D14-502A01B15A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
     <sheet name="HSA" sheetId="3" r:id="rId2"/>
-    <sheet name="dt" sheetId="4" r:id="rId3"/>
-    <sheet name="bias" sheetId="2" r:id="rId4"/>
+    <sheet name="S3" sheetId="5" r:id="rId3"/>
+    <sheet name="dt" sheetId="4" r:id="rId4"/>
+    <sheet name="MYD" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>MYD(2002-2019)</t>
   </si>
@@ -75,9 +76,6 @@
     <t>0.0050+-0.0001</t>
   </si>
   <si>
-    <t>MOD-MYD</t>
-  </si>
-  <si>
     <t>0.0046+-0.0009</t>
   </si>
   <si>
@@ -98,6 +96,21 @@
   <si>
     <t>MYD</t>
   </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>rescaled</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median </t>
+  </si>
+  <si>
+    <t>2002-2018</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +120,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,16 +134,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,11 +188,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,8 +228,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -224,442 +323,6 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>HSA!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>HSA!$A$2:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>HSA!$B$2:$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>3.1899999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7099999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4499999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6900000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.53E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.8000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1899999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.6000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2300000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.8999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.3699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.2600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1023</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.10639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.13869999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.17560000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62EB-433A-AB85-986E7B495533}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1294810176"/>
-        <c:axId val="1294809760"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1294810176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1294809760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1294809760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1294810176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -718,22 +381,22 @@
             <c:numRef>
               <c:f>dt!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-3.6100000000000007E-2</c:v>
+                  <c:v>-4.3899999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9200000000000008E-2</c:v>
+                  <c:v>-5.6099999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.839999999999999E-2</c:v>
+                  <c:v>1.7899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0699999999999985E-2</c:v>
+                  <c:v>2.8099999999999986E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1076</c:v>
+                  <c:v>5.1100000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,7 +492,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -874,6 +537,375 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5301837270341209E-5"/>
+                  <c:y val="0.3190277777777778"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>dt!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>dt!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8099999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1100000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7334-40C8-96E5-1482A58E2697}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1484363183"/>
+        <c:axId val="1484358191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1484363183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1484358191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1484358191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1484363183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -964,11 +996,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>bias!$B$1</c:f>
+              <c:f>MYD!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MOD-MYD</c:v>
+                  <c:v>mean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -997,7 +1029,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>bias!$A$2:$A$20</c:f>
+              <c:f>MYD!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1063,7 +1095,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>bias!$B$2:$B$20</c:f>
+              <c:f>MYD!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1442,7 +1474,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1469,8 +1501,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1571,7 +1603,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1603,10 +1635,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1646,23 +1678,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1767,8 +1798,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1900,20 +1931,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1927,17 +1957,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1958,7 +1977,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1985,8 +2004,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2087,7 +2106,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2119,10 +2138,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2162,22 +2181,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2282,8 +2302,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2415,19 +2435,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2441,6 +2462,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2981,56 +3013,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DC39F9-A49F-415C-BF47-986E41AB0A28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3055,23 +3046,59 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0DA2AF-9C6E-477C-BBF0-4FD807C6E057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>460057</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>269556</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>155257</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3402,14 +3429,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -3430,7 +3457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +3480,7 @@
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3461,7 +3488,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>0.81</v>
@@ -3484,461 +3511,566 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62101249-8DDD-44BD-9CE3-E155592038DC}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
         <v>2000</v>
       </c>
-      <c r="B2" s="6">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="C2">
-        <f>B2-0.068</f>
-        <v>-3.6100000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="B2" s="14">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="C2" s="15">
+        <f>B2-$F$2</f>
+        <v>-4.3899999999999995E-2</v>
+      </c>
+      <c r="E2">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="9">
+        <f>B4</f>
+        <v>7.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
         <v>2001</v>
       </c>
-      <c r="B3" s="6">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C24" si="0">B3-0.068</f>
-        <v>-4.9200000000000008E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="B3" s="14">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="C3" s="15">
+        <f>B3-$F$2</f>
+        <v>-5.6099999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="9">
+        <f>B21</f>
+        <v>0.1086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>2002</v>
       </c>
-      <c r="B4" s="6">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>7.5999999999999956E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="B4" s="11">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <f>B4-$F$2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9">
+        <f>MEDIAN(B4:B20)</f>
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>2003</v>
       </c>
-      <c r="B5" s="6">
-        <v>3.8699999999999998E-2</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>-2.9300000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="B5" s="17">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
         <v>2004</v>
       </c>
-      <c r="B6" s="6">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="B6" s="17">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>2005</v>
       </c>
-      <c r="B7" s="6">
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-1.0900000000000007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="B7" s="17">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>2006</v>
       </c>
-      <c r="B8" s="6">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>6.4999999999999919E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="B8" s="17">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>2007</v>
       </c>
-      <c r="B9" s="6">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-1.1000000000000038E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="17">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
-      <c r="B10" s="6">
-        <v>2.53E-2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-4.2700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2009</v>
       </c>
-      <c r="B11" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>5.62E-2</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>2010</v>
       </c>
-      <c r="B12" s="6">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-3.6100000000000007E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>2011</v>
       </c>
-      <c r="B13" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>-6.3E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>5.3E-3</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2012</v>
       </c>
-      <c r="B14" s="6">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>-6.7400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2013</v>
       </c>
-      <c r="B15" s="6">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>-2.0000000000000018E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2014</v>
       </c>
-      <c r="B16" s="6">
-        <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>-3.5700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
-      <c r="B17" s="6">
-        <v>-3.8999999999999998E-3</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>-7.1900000000000006E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
-      <c r="B18" s="6">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="7">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="17">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="17">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.1086</v>
+      </c>
+      <c r="C21" s="12">
+        <f>B21-$F$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0.1265</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" ref="C22:C24" si="0">B22-$F$3</f>
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="C23" s="12">
         <f t="shared" si="0"/>
-        <v>-5.1500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="6">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="C19">
+        <v>2.8099999999999986E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="C24" s="12">
         <f t="shared" si="0"/>
-        <v>-4.4300000000000006E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="6">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>-1.5400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.1023</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>3.4299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0.10639999999999999</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>3.839999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0.13869999999999999</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>7.0699999999999985E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.17560000000000001</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.1076</v>
-      </c>
-    </row>
+        <v>5.1100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C30D325-2938-4F73-9368-19A72B8D5C63}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="9">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="C2" s="9">
+        <f>B2-$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <f>MEDIAN(B2:B4)</f>
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E2" s="9">
+        <f>_xlfn.STDEV.P(B2:B5)</f>
+        <v>5.6329388422030639E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C5" si="0">B3-$D$2</f>
+        <v>5.3999999999999994E-3</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="9">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.35E-2</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05A491-DBCD-46F6-834B-4990E0FA09B1}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2-HSA!$F$2</f>
+        <v>-4.3899999999999995E-2</v>
+      </c>
+      <c r="E2" s="9">
+        <f>D2/($D$5/$D$8)</f>
+        <v>-2.452513966480447E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3-HSA!$F$2</f>
+        <v>-5.6099999999999997E-2</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3/($D$5/$D$8)</f>
+        <v>-3.1340782122905031E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.1265</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <f>B5-HSA!$F$3</f>
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <f>B6-HSA!$F$3</f>
+        <v>2.8099999999999986E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <f>B7-HSA!$F$3</f>
+        <v>5.1100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7">
+        <f>B8-dt!E7</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1.35E-2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8">
+        <f>B9-'S3'!$D$2</f>
+        <v>7.6E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05A491-DBCD-46F6-834B-4990E0FA09B1}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="6">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6">
-        <f>B2-0.068</f>
-        <v>-3.6100000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D8" si="0">B3-0.068</f>
-        <v>-4.9200000000000008E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.10639999999999999</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>3.839999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.13869999999999999</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>7.0699999999999985E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.17560000000000001</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6">
-        <f>B8-0</f>
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4041A7E-6E72-46F8-925A-BDA46EA8ACDA}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2002</v>
       </c>
@@ -3946,7 +4078,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2003</v>
       </c>
@@ -3954,7 +4086,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2004</v>
       </c>
@@ -3962,7 +4094,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -3970,7 +4102,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2006</v>
       </c>
@@ -3978,7 +4110,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -3986,7 +4118,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2008</v>
       </c>
@@ -3994,7 +4126,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2009</v>
       </c>
@@ -4002,7 +4134,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
@@ -4010,7 +4142,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -4018,7 +4150,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -4026,7 +4158,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -4034,7 +4166,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
@@ -4042,7 +4174,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
@@ -4050,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
@@ -4058,7 +4190,7 @@
         <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2017</v>
       </c>
@@ -4066,7 +4198,7 @@
         <v>-5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2018</v>
       </c>
@@ -4074,7 +4206,7 @@
         <v>-8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2019</v>
       </c>
@@ -4082,7 +4214,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2020</v>
       </c>

--- a/gee/stat.xlsx
+++ b/gee/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\Documents\GitHub\PhD\orbit-drift-MODIS-ice-albedo\gee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187342BF-5575-4F81-91B0-E6BB89F2390B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A400C-04A4-4767-94E8-0A781E21FBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{49D7E878-2DD4-473C-8D14-502A01B15A7E}"/>
   </bookViews>
@@ -3511,10 +3511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62101249-8DDD-44BD-9CE3-E155592038DC}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3522,7 +3522,7 @@
     <col min="1" max="1" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>2000</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>7.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2001</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0.1086</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>2002</v>
       </c>
@@ -3592,8 +3592,12 @@
         <f>MEDIAN(B4:B20)</f>
         <v>3.9199999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f>_xlfn.STDEV.P(B4:B20)</f>
+        <v>2.6288224105929986E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>2003</v>
       </c>
@@ -3602,7 +3606,7 @@
       </c>
       <c r="C5" s="18"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>2004</v>
       </c>
@@ -3611,7 +3615,7 @@
       </c>
       <c r="C6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>2005</v>
       </c>
@@ -3620,7 +3624,7 @@
       </c>
       <c r="C7" s="18"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>2006</v>
       </c>
@@ -3629,7 +3633,7 @@
       </c>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>2007</v>
       </c>
@@ -3638,7 +3642,7 @@
       </c>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -3647,7 +3651,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2009</v>
       </c>
@@ -3656,7 +3660,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>2010</v>
       </c>
@@ -3665,7 +3669,7 @@
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>2011</v>
       </c>
@@ -3674,7 +3678,7 @@
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2012</v>
       </c>
@@ -3683,7 +3687,7 @@
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2013</v>
       </c>
@@ -3693,7 +3697,7 @@
       <c r="C15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2014</v>
       </c>

--- a/gee/stat.xlsx
+++ b/gee/stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\Documents\GitHub\PhD\orbit-drift-MODIS-ice-albedo\gee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A400C-04A4-4767-94E8-0A781E21FBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5815859-E639-4743-BDE7-FEC809952E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{49D7E878-2DD4-473C-8D14-502A01B15A7E}"/>
+    <workbookView xWindow="4125" yWindow="3015" windowWidth="28800" windowHeight="15375" activeTab="3" xr2:uid="{49D7E878-2DD4-473C-8D14-502A01B15A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>MYD(2002-2019)</t>
   </si>
@@ -97,9 +97,6 @@
     <t>MYD</t>
   </si>
   <si>
-    <t>std</t>
-  </si>
-  <si>
     <t>rescaled</t>
   </si>
   <si>
@@ -120,7 +117,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +149,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -210,7 +213,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,6 +259,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3012,16 +3017,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3048,16 +3053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3415,7 +3420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3429,14 +3434,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -3457,7 +3462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3480,7 +3485,7 @@
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3513,16 +3518,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62101249-8DDD-44BD-9CE3-E155592038DC}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3536,7 +3541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>2000</v>
       </c>
@@ -3555,7 +3560,7 @@
         <v>7.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2001</v>
       </c>
@@ -3574,7 +3579,7 @@
         <v>0.1086</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2002</v>
       </c>
@@ -3586,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="9">
         <f>MEDIAN(B4:B20)</f>
@@ -3597,7 +3602,7 @@
         <v>2.6288224105929986E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>2003</v>
       </c>
@@ -3606,7 +3611,7 @@
       </c>
       <c r="C5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>2004</v>
       </c>
@@ -3615,7 +3620,7 @@
       </c>
       <c r="C6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>2005</v>
       </c>
@@ -3624,7 +3629,7 @@
       </c>
       <c r="C7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>2006</v>
       </c>
@@ -3633,7 +3638,7 @@
       </c>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2007</v>
       </c>
@@ -3642,7 +3647,7 @@
       </c>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2008</v>
       </c>
@@ -3651,7 +3656,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2009</v>
       </c>
@@ -3660,7 +3665,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2010</v>
       </c>
@@ -3669,7 +3674,7 @@
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2011</v>
       </c>
@@ -3678,7 +3683,7 @@
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2012</v>
       </c>
@@ -3687,7 +3692,7 @@
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2013</v>
       </c>
@@ -3697,7 +3702,7 @@
       <c r="C15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2014</v>
       </c>
@@ -3706,7 +3711,7 @@
       </c>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -3715,7 +3720,7 @@
       </c>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
@@ -3724,7 +3729,7 @@
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>2017</v>
       </c>
@@ -3733,7 +3738,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>2018</v>
       </c>
@@ -3742,7 +3747,7 @@
       </c>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>2019</v>
       </c>
@@ -3754,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>2020</v>
       </c>
@@ -3766,7 +3771,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>2021</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>2.8099999999999986E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>2022</v>
       </c>
@@ -3790,7 +3795,7 @@
         <v>5.1100000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3802,113 +3807,122 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>2017</v>
       </c>
-      <c r="B2" s="9">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="20">
         <f>B2-$D$2</f>
-        <v>0</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="D2" s="9">
-        <f>MEDIAN(B2:B4)</f>
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="E2" s="9">
-        <f>_xlfn.STDEV.P(B2:B5)</f>
-        <v>5.6329388422030639E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+        <f>B4</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>2018</v>
       </c>
-      <c r="B3" s="9">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C5" si="0">B3-$D$2</f>
-        <v>5.3999999999999994E-3</v>
+      <c r="B3" s="18">
+        <v>1.23E-2</v>
+      </c>
+      <c r="C3" s="20">
+        <f t="shared" ref="C3:C7" si="0">B3-$D$2</f>
+        <v>1.12E-2</v>
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2019</v>
       </c>
       <c r="B4" s="9">
-        <v>-1.1000000000000001E-3</v>
-      </c>
-      <c r="C4" s="9">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="C4" s="19">
         <f t="shared" si="0"/>
-        <v>-7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2020</v>
       </c>
       <c r="B5" s="9">
-        <v>1.35E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>7.6E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2022</v>
       </c>
+      <c r="B7" s="9">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000005E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05A491-DBCD-46F6-834B-4990E0FA09B1}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3922,10 +3936,10 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2000</v>
       </c>
@@ -3944,7 +3958,7 @@
         <v>-2.452513966480447E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2001</v>
       </c>
@@ -3963,7 +3977,7 @@
         <v>-3.1340782122905031E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3971,7 +3985,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2020</v>
       </c>
@@ -3986,7 +4000,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2021</v>
       </c>
@@ -4001,7 +4015,7 @@
         <v>2.8099999999999986E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2022</v>
       </c>
@@ -4016,7 +4030,7 @@
         <v>5.1100000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2020</v>
       </c>
@@ -4031,7 +4045,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2020</v>
       </c>
@@ -4039,14 +4053,42 @@
         <v>1.35E-2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8">
-        <f>B9-'S3'!$D$2</f>
-        <v>7.6E-3</v>
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1.35E-2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1.35E-2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8.8000000000000005E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4058,15 +4100,15 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4074,7 +4116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2002</v>
       </c>
@@ -4082,7 +4124,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2003</v>
       </c>
@@ -4090,7 +4132,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2004</v>
       </c>
@@ -4098,7 +4140,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -4106,7 +4148,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2006</v>
       </c>
@@ -4114,7 +4156,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -4122,7 +4164,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2008</v>
       </c>
@@ -4130,7 +4172,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2009</v>
       </c>
@@ -4138,7 +4180,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
@@ -4146,7 +4188,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -4154,7 +4196,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -4162,7 +4204,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -4170,7 +4212,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
@@ -4178,7 +4220,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
@@ -4186,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
@@ -4194,7 +4236,7 @@
         <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2017</v>
       </c>
@@ -4202,7 +4244,7 @@
         <v>-5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2018</v>
       </c>
@@ -4210,7 +4252,7 @@
         <v>-8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2019</v>
       </c>
@@ -4218,7 +4260,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2020</v>
       </c>
